--- a/biology/Botanique/Bellis_bernardii/Bellis_bernardii.xlsx
+++ b/biology/Botanique/Bellis_bernardii/Bellis_bernardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bellis bernardii, la Pâquerette de Bernard[1], ou marguerite corse, est une espèce de plante à fleurs qui fait partie de la famille des marguerites (Asteraceae). C'est une espèce endémique que l'on trouve en Corse[2].
-Son statut de conservation ne présente pas d'inquiétude selon l'IUCN[3],[4].
-Cette espèce a fait l'objet d'une étude[5] sur sa composition qui en isola neuf saponines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bellis bernardii, la Pâquerette de Bernard, ou marguerite corse, est une espèce de plante à fleurs qui fait partie de la famille des marguerites (Asteraceae). C'est une espèce endémique que l'on trouve en Corse.
+Son statut de conservation ne présente pas d'inquiétude selon l'IUCN,.
+Cette espèce a fait l'objet d'une étude sur sa composition qui en isola neuf saponines.
 Elle a été référencée en 1852 par Pierre Edmond Boissier et Georges François Reuter.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Description botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante hémicryptophyte de 1 à 5 cm de hauteur.
 La tige est simple, nue.
@@ -523,7 +537,7 @@
 Inflorescences-paniers mesurant entre 1 et 1,2 cm, solitaires, apicaux, à fleurs blanches ou roses; feuilles enveloppantes noires.
 Le fruit est un petit akène.
 Fleurit en juillet et août.
-Les conditions de germination, de croissance et de floraison sont actuellement inconnues[4].
+Les conditions de germination, de croissance et de floraison sont actuellement inconnues.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bellis bernardii est connu sur 11 sites en Corse. Principalement dans la région montagneuse au centre de la Corse, au sud de Corte à une altitude d'environ 1650 - 2 400 m. Elle pousse dans la « pozzine », la tourbe et l'herbe autour des lacs et sur le granite (granodiorite et monzogranite) et les sédiments glaciaires granitiques[1],[4]. La population du lac de Melo a été observée pour la dernière fois en 2007.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bellis bernardii est connu sur 11 sites en Corse. Principalement dans la région montagneuse au centre de la Corse, au sud de Corte à une altitude d'environ 1650 - 2 400 m. Elle pousse dans la « pozzine », la tourbe et l'herbe autour des lacs et sur le granite (granodiorite et monzogranite) et les sédiments glaciaires granitiques,. La population du lac de Melo a été observée pour la dernière fois en 2007.
 </t>
         </is>
       </c>
